--- a/Assignment Details.xlsx
+++ b/Assignment Details.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="8900" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="23260" yWindow="460" windowWidth="10000" windowHeight="19700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blocked Users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Query</t>
   </si>
@@ -45,16 +46,159 @@
   </si>
   <si>
     <t>Managers=NO</t>
+  </si>
+  <si>
+    <t>two  already finished in old settings: clueweb12-0908wb-98-04585, clueweb12-0700tw-39-04387</t>
+  </si>
+  <si>
+    <t>New Template with doc-id in answers</t>
+  </si>
+  <si>
+    <t>Old Template</t>
+  </si>
+  <si>
+    <t>New Template with doc-id in answers, 498 hits</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 122</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 123</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 124</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 126</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 127</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 128</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 129</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 130</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 131</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 132</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 133</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 134</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 135</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 136</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 137</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 138</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 139</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 140</t>
+  </si>
+  <si>
+    <t>CLEF 2017-Query 141</t>
+  </si>
+  <si>
+    <t>A2SKH7WZUEDGGI</t>
+  </si>
+  <si>
+    <t>Worker ID</t>
+  </si>
+  <si>
+    <t>Sample Evident</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1608wb-98-24487;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>A1EF7PCXWNTUXR</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0818wb-74-18036;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>AH4SMMFHDHK1L</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0104wb-48-29998;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>A1XA2WZVXTTLOI</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0110wb-18-10469;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0110wb-43-19005;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>A3RYO4RE80IJ84</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1908wb-93-26542;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0810wb-81-07461;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1807wb-17-16438;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>A3S104I5V53HB8</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0109wb-07-16113;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1502wb-86-05051;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>AZ7GSYRVDR23N</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0006wb-17-18108;topicId=2s7f67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,14 +221,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,18 +523,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>106</v>
       </c>
@@ -393,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -401,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>107</v>
       </c>
@@ -409,18 +572,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>108</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>109</v>
       </c>
@@ -431,7 +594,401 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>111</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>113</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>114</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>115</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>120</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Assignment Details.xlsx
+++ b/Assignment Details.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23260" yWindow="460" windowWidth="10000" windowHeight="19700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="24900" yWindow="520" windowWidth="10000" windowHeight="19700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blocked Users" sheetId="2" r:id="rId2"/>
+    <sheet name="Blocked and white listed users" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>Query</t>
   </si>
@@ -175,13 +176,223 @@
   </si>
   <si>
     <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0006wb-17-18108;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0700wb-82-24900;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>A1XZTIJD9WBHLJ</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0612wb-77-22720;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1010wb-28-23486;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1400wb-72-33205;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>A21I4DTJGWJYQJ</t>
+  </si>
+  <si>
+    <t>White List</t>
+  </si>
+  <si>
+    <t>A23CV5SKZAJHQJ</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0701wb-34-09751;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0701wb-77-18683;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>A2XYDJS33I2341</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1803wb-09-05486;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1019wb-59-10540;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0510wb-19-10077;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>A33MF851P56BFH</t>
+  </si>
+  <si>
+    <t>A39N0WW02VT0MB</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1501wb-89-30611;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0004wb-90-16571;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1512wb-68-00783;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0100tw-25-07072;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>AZZM966F90AL1</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0108wb-76-34619;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0206wb-15-16411;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>A1IHI23KH87K5W</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0509wb-15-11462;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>Dodgy</t>
+  </si>
+  <si>
+    <t>A1T79J0XQXDDGC</t>
+  </si>
+  <si>
+    <t>A1XC5OV00MECKQ</t>
+  </si>
+  <si>
+    <t>A2IG18D6M0GNUZ</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1910wb-88-29811;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>A33D8QFFK8WBTQ</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1009wb-12-29554;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1009wb-05-08779;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>A3B67I3A0YR2D</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0103wb-29-09191;topicId=36e8h1</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0910wb-27-05473;topicId=2trr62</t>
+  </si>
+  <si>
+    <t>A1PLY1H54IPJRB</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0212wb-00-30776;topicId=2trr62</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1607wb-47-19368;topicId=2trr62</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0210wb-55-25590;topicId=2trr62</t>
+  </si>
+  <si>
+    <t>A2WAVLJ0FU9UYQ</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1508wb-95-26090;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>A1T1FK3P2N408U</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0012wb-47-18993;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1217wb-28-08856;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>A1WGEJVGY3DI13</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0013wb-12-04299;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1910wb-21-00175;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>A2LO2DX6H49IKW</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0112wb-60-08498;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0201wb-78-26666;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0201wb-91-07427;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0915wb-33-22983;topicId=2rc12o</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0601wb-42-08172;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0202wb-51-05211;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>A1RU9BQLDZ1DSY</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1414wb-82-20474;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1904wb-26-11149;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1503wb-64-16315;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0103wb-58-26754;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1514wb-98-09364;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1306wb-06-13293;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>A3CLGUZHWU3699</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0310wb-07-15439;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>AKATSYE8XLYNL</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0302wb-75-33133;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1402wb-12-13666;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0108wb-85-03300;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>AR50UBGSH10FJ</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0915wb-67-24640;topicId=3gwhon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +410,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,8 +440,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -238,7 +484,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -248,6 +494,33 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -891,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,8 +1260,356 @@
         <v>48</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment Details.xlsx
+++ b/Assignment Details.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24900" yWindow="520" windowWidth="10000" windowHeight="19700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="23600" yWindow="460" windowWidth="10000" windowHeight="19700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>Query</t>
   </si>
@@ -244,15 +244,6 @@
     <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0108wb-76-34619;topicId=2s7f67</t>
   </si>
   <si>
-    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0206wb-15-16411;topicId=36e8h1</t>
-  </si>
-  <si>
-    <t>A1IHI23KH87K5W</t>
-  </si>
-  <si>
-    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0509wb-15-11462;topicId=36e8h1</t>
-  </si>
-  <si>
     <t>Dodgy</t>
   </si>
   <si>
@@ -386,6 +377,21 @@
   </si>
   <si>
     <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-0915wb-67-24640;topicId=3gwhon</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1910wb-96-05435;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>A11SNA2B0ACV9R</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1908wb-32-16059;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1217wb-97-33073;topicId=2s7f67</t>
+  </si>
+  <si>
+    <t>http://clef2017pool.ielab.webfactional.com/?doc=clueweb12-1808wb-78-04695;topicId=2s7f67</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1291,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,15 +1352,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1364,141 +1370,134 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1506,94 +1505,117 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>94</v>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
